--- a/Data/Transitions/19381941Translation.xlsx
+++ b/Data/Transitions/19381941Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="625">
   <si>
     <t>id</t>
   </si>
@@ -175,7 +175,7 @@
     <t>{80.0: 1.0}</t>
   </si>
   <si>
-    <t>{81.0: 0.9994900560938297}</t>
+    <t>{81.0: 0.9994958830448664}</t>
   </si>
   <si>
     <t>{82.0: 1.0}</t>
@@ -187,7 +187,7 @@
     <t>{84.0: 1.0}</t>
   </si>
   <si>
-    <t>{85.0: 0.996400449943757, 178.0: 0.008755573571139035}</t>
+    <t>{85.0: 0.9963619827194179, 178.0: 0.008801955990220049}</t>
   </si>
   <si>
     <t>{86.0: 1.0}</t>
@@ -223,7 +223,7 @@
     <t>{96.0: 1.0}</t>
   </si>
   <si>
-    <t>{97.0: 0.9961333977767037}</t>
+    <t>{97.0: 0.9961451975586251}</t>
   </si>
   <si>
     <t>{98.0: 1.0}</t>
@@ -250,7 +250,7 @@
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: -0.013439522150323544}</t>
+    <t>{107.0: 1.0}</t>
   </si>
   <si>
     <t>{108.0: 1.0}</t>
@@ -298,7 +298,7 @@
     <t>{151.0: 1.0}</t>
   </si>
   <si>
-    <t>{152.0: 0.9995648863265528}</t>
+    <t>{152.0: 0.9995732878173672}</t>
   </si>
   <si>
     <t>{162.0: 1.0}</t>
@@ -337,7 +337,7 @@
     <t>{173.0: 1.0}</t>
   </si>
   <si>
-    <t>{174.0: 0.9934177215189873}</t>
+    <t>{174.0: 0.9934541792547835}</t>
   </si>
   <si>
     <t>{175.0: 1.0}</t>
@@ -349,19 +349,19 @@
     <t>{177.0: 1.0}</t>
   </si>
   <si>
-    <t>{178.0: 0.991244426428861}</t>
-  </si>
-  <si>
-    <t>{179.0: 1.0, 180.0: 0.023614895549500452, 850.0: 6.286827434143215e-05}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.9763851044504995, 850.0: 0.0025993613429630604}</t>
+    <t>{178.0: 0.99119804400978}</t>
+  </si>
+  <si>
+    <t>{179.0: 1.0, 180.0: 0.02333808543217699, 850.0: 6.225564636792795e-05}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.976661914567823, 850.0: 0.0026053002055827224}</t>
   </si>
   <si>
     <t>{181.0: 1.0}</t>
   </si>
   <si>
-    <t>{182.0: 1.0, 277.0: 0.0025256276927648194, 282.0: 0.0027799841143764893}</t>
+    <t>{182.0: 1.0, 277.0: 0.0025278810408921933, 282.0: 0.0028089887640449437}</t>
   </si>
   <si>
     <t>{183.0: 1.0}</t>
@@ -373,7 +373,7 @@
     <t>{185.0: 1.0}</t>
   </si>
   <si>
-    <t>{202.0: 0.9265587147775086}</t>
+    <t>{202.0: 0.926624203821656}</t>
   </si>
   <si>
     <t>{203.0: 1.0}</t>
@@ -394,7 +394,7 @@
     <t>{208.0: 1.0}</t>
   </si>
   <si>
-    <t>{209.0: 0.9932935916542474}</t>
+    <t>{209.0: 0.9932177844762623}</t>
   </si>
   <si>
     <t>{210.0: 1.0}</t>
@@ -403,7 +403,7 @@
     <t>{211.0: 1.0}</t>
   </si>
   <si>
-    <t>{212.0: 0.9991899554475496}</t>
+    <t>{212.0: 0.9991932230738201}</t>
   </si>
   <si>
     <t>{213.0: 1.0}</t>
@@ -442,7 +442,7 @@
     <t>{226.0: 1.0}</t>
   </si>
   <si>
-    <t>{227.0: 1.0, 844.0: 0.003951267698386566}</t>
+    <t>{227.0: 1.0, 844.0: 0.003972194637537239}</t>
   </si>
   <si>
     <t>{228.0: 1.0}</t>
@@ -484,6 +484,9 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
+    <t>{242.0: 1.0}</t>
+  </si>
+  <si>
     <t>{243.0: 1.0}</t>
   </si>
   <si>
@@ -541,7 +544,7 @@
     <t>{262.0: 1.0}</t>
   </si>
   <si>
-    <t>{263.0: 1.0, 595.0: 0.0017152658662092624}</t>
+    <t>{263.0: 1.0, 595.0: 0.0017327861377108983}</t>
   </si>
   <si>
     <t>{264.0: 1.0}</t>
@@ -556,7 +559,7 @@
     <t>{268.0: 1.0}</t>
   </si>
   <si>
-    <t>{270.0: 1.0, 479.0: 0.02117183653372723}</t>
+    <t>{270.0: 1.0, 479.0: 0.020544672718585764}</t>
   </si>
   <si>
     <t>{271.0: 1.0}</t>
@@ -577,7 +580,7 @@
     <t>{276.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.9974743723072352}</t>
+    <t>{277.0: 0.9974721189591078}</t>
   </si>
   <si>
     <t>{278.0: 1.0}</t>
@@ -592,7 +595,7 @@
     <t>{281.0: 1.0}</t>
   </si>
   <si>
-    <t>{282.0: 0.9972200158856235}</t>
+    <t>{282.0: 0.9971910112359551}</t>
   </si>
   <si>
     <t>{283.0: 1.0}</t>
@@ -703,9 +706,6 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
     <t>{398.0: 1.0}</t>
   </si>
   <si>
@@ -718,16 +718,16 @@
     <t>{401.0: 1.0}</t>
   </si>
   <si>
-    <t>{402.0: 0.9989673688558447}</t>
+    <t>{402.0: 0.9989634083134653}</t>
   </si>
   <si>
     <t>{403.0: 1.0}</t>
   </si>
   <si>
-    <t>{404.0: 0.9981033392723719}</t>
-  </si>
-  <si>
-    <t>{405.0: 1.0, 404.0: 0.0018966607276280246}</t>
+    <t>{404.0: 0.9980654238480479}</t>
+  </si>
+  <si>
+    <t>{405.0: 1.0, 404.0: 0.0019345761519521632}</t>
   </si>
   <si>
     <t>{406.0: 1.0}</t>
@@ -769,7 +769,7 @@
     <t>{419.0: 1.0}</t>
   </si>
   <si>
-    <t>{420.0: 1.0, 212.0: 0.0008100445524503848}</t>
+    <t>{420.0: 1.0, 212.0: 0.0008067769261799112}</t>
   </si>
   <si>
     <t>{421.0: 1.0}</t>
@@ -793,7 +793,7 @@
     <t>{429.0: 1.0}</t>
   </si>
   <si>
-    <t>{430.0: 1.0, 783.0: 0.0003181673560292714}</t>
+    <t>{430.0: 1.0, 783.0: 0.0003204101249599487}</t>
   </si>
   <si>
     <t>{431.0: 1.0}</t>
@@ -847,7 +847,7 @@
     <t>{478.0: 1.0}</t>
   </si>
   <si>
-    <t>{479.0: 0.9788281634662728}</t>
+    <t>{479.0: 0.9794553272814143}</t>
   </si>
   <si>
     <t>{480.0: 1.0}</t>
@@ -886,7 +886,7 @@
     <t>{491.0: 1.0}</t>
   </si>
   <si>
-    <t>{492.0: 1.0, 97.0: 0.0038666022232962784, 696.0: 0.001007725898555593}</t>
+    <t>{492.0: 1.0, 97.0: 0.0038548024413748794, 696.0: 0.0009791122715404699}</t>
   </si>
   <si>
     <t>{493.0: 1.0}</t>
@@ -1069,7 +1069,7 @@
     <t>{593.0: 1.0}</t>
   </si>
   <si>
-    <t>{595.0: 0.9982847341337907, 402.0: 0.0010326311441553077}</t>
+    <t>{595.0: 0.9982672138622891, 402.0: 0.001036591686534674}</t>
   </si>
   <si>
     <t>{596.0: 1.0}</t>
@@ -1171,7 +1171,7 @@
     <t>{628.0: 1.0}</t>
   </si>
   <si>
-    <t>{629.0: 1.0, 209.0: 0.0067064083457526085, 788.0: 0.513246688327918}</t>
+    <t>{629.0: 1.0, 209.0: 0.006782215523737754, 788.0: 0.5105034182722188}</t>
   </si>
   <si>
     <t>{630.0: 1.0}</t>
@@ -1186,7 +1186,7 @@
     <t>{633.0: 1.0}</t>
   </si>
   <si>
-    <t>{634.0: 0.9963536918869644}</t>
+    <t>{634.0: 0.9964896884598509}</t>
   </si>
   <si>
     <t>{635.0: 1.0}</t>
@@ -1195,7 +1195,7 @@
     <t>{636.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.0014527342533983605}</t>
+    <t>{702.0: 0.001321003963011889}</t>
   </si>
   <si>
     <t>{678.0: 1.0}</t>
@@ -1225,7 +1225,7 @@
     <t>{686.0: 1.0}</t>
   </si>
   <si>
-    <t>{687.0: 1.0, 174.0: 0.006582278481012658}</t>
+    <t>{687.0: 1.0, 174.0: 0.006545820745216516}</t>
   </si>
   <si>
     <t>{688.0: 1.0}</t>
@@ -1249,10 +1249,10 @@
     <t>{694.0: 1.0}</t>
   </si>
   <si>
-    <t>{695.0: 0.9819587628865979}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.9989922741014444}</t>
+    <t>{695.0: 0.9820117474302497}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.9990208877284595}</t>
   </si>
   <si>
     <t>{697.0: 1.0}</t>
@@ -1267,7 +1267,7 @@
     <t>{701.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.9985472657466017}</t>
+    <t>{702.0: 0.9986789960369881}</t>
   </si>
   <si>
     <t>{703.0: 1.0}</t>
@@ -1366,7 +1366,7 @@
     <t>{756.0: 1.0}</t>
   </si>
   <si>
-    <t>{757.0: 1.0, 634.0: 0.0036463081130355514}</t>
+    <t>{757.0: 1.0, 634.0: 0.0035103115401491883}</t>
   </si>
   <si>
     <t>{758.0: 1.0}</t>
@@ -1405,7 +1405,7 @@
     <t>{769.0: 1.0}</t>
   </si>
   <si>
-    <t>{770.0: 1.0, 992.0: 0.00421455938697318}</t>
+    <t>{770.0: 1.0, 992.0: 0.004208110175975516}</t>
   </si>
   <si>
     <t>{771.0: 1.0}</t>
@@ -1435,13 +1435,13 @@
     <t>{780.0: 1.0}</t>
   </si>
   <si>
-    <t>{781.0: 1.0, 81.0: 0.0005099439061703213}</t>
+    <t>{781.0: 1.0, 81.0: 0.000504116955133591}</t>
   </si>
   <si>
     <t>{782.0: 1.0}</t>
   </si>
   <si>
-    <t>{783.0: 0.9996818326439707}</t>
+    <t>{783.0: 0.99967958987504}</t>
   </si>
   <si>
     <t>{784.0: 1.0}</t>
@@ -1456,7 +1456,7 @@
     <t>{787.0: 1.0}</t>
   </si>
   <si>
-    <t>{788.0: -0.04411397150712322}</t>
+    <t>{788.0: -0.03853325046612803}</t>
   </si>
   <si>
     <t>{789.0: 1.0}</t>
@@ -1501,7 +1501,7 @@
     <t>{843.0: 1.0}</t>
   </si>
   <si>
-    <t>{844.0: 0.9960487323016134}</t>
+    <t>{844.0: 0.9960278053624627}</t>
   </si>
   <si>
     <t>{845.0: 1.0}</t>
@@ -1519,7 +1519,7 @@
     <t>{849.0: 1.0}</t>
   </si>
   <si>
-    <t>{850.0: 0.9973377703826956}</t>
+    <t>{850.0: 0.9973324441480493}</t>
   </si>
   <si>
     <t>{851.0: 1.0}</t>
@@ -1528,7 +1528,7 @@
     <t>{852.0: 1.0}</t>
   </si>
   <si>
-    <t>{853.0: 1.0, 202.0: 0.0734412852224914}</t>
+    <t>{853.0: 1.0, 202.0: 0.07337579617834394}</t>
   </si>
   <si>
     <t>{854.0: 1.0}</t>
@@ -1540,7 +1540,7 @@
     <t>{856.0: 1.0}</t>
   </si>
   <si>
-    <t>{857.0: 1.0, 695.0: 0.01804123711340206}</t>
+    <t>{857.0: 1.0, 695.0: 0.017988252569750368}</t>
   </si>
   <si>
     <t>{858.0: 1.0}</t>
@@ -1609,7 +1609,7 @@
     <t>{907.0: 1.0}</t>
   </si>
   <si>
-    <t>{788.0: 0.5308672831792052}</t>
+    <t>{788.0: 0.5280298321939093}</t>
   </si>
   <si>
     <t>{909.0: 1.0}</t>
@@ -1693,7 +1693,7 @@
     <t>{936.0: 1.0}</t>
   </si>
   <si>
-    <t>{937.0: 1.0, 85.0: 0.0035995500562429695}</t>
+    <t>{937.0: 1.0, 85.0: 0.0036380172805820826}</t>
   </si>
   <si>
     <t>{938.0: 1.0}</t>
@@ -1717,7 +1717,7 @@
     <t>{944.0: 1.0}</t>
   </si>
   <si>
-    <t>{971.0: 1.0, 152.0: 0.0004351136734471881}</t>
+    <t>{971.0: 1.0, 152.0: 0.0004267121826328142}</t>
   </si>
   <si>
     <t>{972.0: 1.0}</t>
@@ -1759,7 +1759,7 @@
     <t>{991.0: 1.0}</t>
   </si>
   <si>
-    <t>{992.0: 0.9957854406130269}</t>
+    <t>{992.0: 0.9957918898240244}</t>
   </si>
   <si>
     <t>{81.0: 1.0}</t>
@@ -1771,9 +1771,6 @@
     <t>{97.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: 1.0}</t>
-  </si>
-  <si>
     <t>{152.0: 1.0}</t>
   </si>
   <si>
@@ -1783,13 +1780,13 @@
     <t>{178.0: 1.0}</t>
   </si>
   <si>
-    <t>{179.0: 0.959516394944129, 180.0: 0.04046549158604738, 850.0: 1.8113469823655946e-05}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.9995525727069351, 850.0: 0.00044742729306487697}</t>
-  </si>
-  <si>
-    <t>{182.0: 0.9971718123968889, 277.0: 0.0020032995522036297, 282.0: 0.0008248880509073768}</t>
+    <t>{179.0: 0.9611769872639437, 180.0: 0.038805642260559096, 850.0: 1.7370475497116875e-05}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.999552572706935, 850.0: 0.00044742729306487697}</t>
+  </si>
+  <si>
+    <t>{182.0: 0.9971607713237903, 277.0: 0.0020111203123151546, 282.0: 0.0008281083638944754}</t>
   </si>
   <si>
     <t>{202.0: 1.0}</t>
@@ -1804,7 +1801,7 @@
     <t>{227.0: 0.9977422389463781, 844.0: 0.002257761053621825}</t>
   </si>
   <si>
-    <t>{263.0: 0.9986023245549507, 595.0: 0.0013976754450492864}</t>
+    <t>{263.0: 0.9986024273630011, 595.0: 0.0013975726369988967}</t>
   </si>
   <si>
     <t>{270.0: 0.9873640905083749, 479.0: 0.012635909491625037}</t>
@@ -1822,22 +1819,22 @@
     <t>{404.0: 1.0}</t>
   </si>
   <si>
-    <t>{405.0: 0.9975034044484793, 404.0: 0.0024965955515206537}</t>
+    <t>{405.0: 0.9975391498881432, 404.0: 0.0024608501118568234}</t>
   </si>
   <si>
     <t>{420.0: 0.9998354992597467, 212.0: 0.00016450074025333114}</t>
   </si>
   <si>
-    <t>{430.0: 0.9998116051243408, 783.0: 0.00018839487565938207}</t>
+    <t>{430.0: 0.9996376811594203, 783.0: 0.0003623188405797101}</t>
   </si>
   <si>
     <t>{479.0: 1.0}</t>
   </si>
   <si>
-    <t>{492.0: 0.9974491964968967, 97.0: 0.002040642802482782, 696.0: 0.0005101607006206955}</t>
-  </si>
-  <si>
-    <t>{595.0: 0.9991012043861226, 402.0: 0.0008987956138774043}</t>
+    <t>{492.0: 0.9974491964968965, 97.0: 0.002040642802482782, 696.0: 0.0005101607006206955}</t>
+  </si>
+  <si>
+    <t>{595.0: 0.9991012043861226, 402.0: 0.0008987956138774042}</t>
   </si>
   <si>
     <t>{629.0: 0.23159851301115242, 209.0: 0.005018587360594796, 788.0: 0.7633828996282528}</t>
@@ -1849,7 +1846,7 @@
     <t>{702.0: 1.0}</t>
   </si>
   <si>
-    <t>{687.0: 0.997153492445807, 174.0: 0.0028465075541931244}</t>
+    <t>{687.0: 0.9971296091852506, 174.0: 0.002870390814749393}</t>
   </si>
   <si>
     <t>{695.0: 1.0}</t>
@@ -1858,13 +1855,13 @@
     <t>{696.0: 1.0}</t>
   </si>
   <si>
-    <t>{757.0: 0.9970781592403216, 634.0: 0.0029218407596785976}</t>
-  </si>
-  <si>
-    <t>{770.0: 0.9803571428571429, 992.0: 0.019642857142857142}</t>
-  </si>
-  <si>
-    <t>{781.0: 0.9996501457725946, 81.0: 0.0003498542274052478}</t>
+    <t>{757.0: 0.9966315789473683, 634.0: 0.0033684210526315796}</t>
+  </si>
+  <si>
+    <t>{770.0: 0.9801712483100496, 992.0: 0.01982875168995043}</t>
+  </si>
+  <si>
+    <t>{781.0: 0.9996501457725947, 81.0: 0.0003498542274052478}</t>
   </si>
   <si>
     <t>{783.0: 1.0}</t>
@@ -1879,10 +1876,10 @@
     <t>{850.0: 1.0}</t>
   </si>
   <si>
-    <t>{853.0: 0.9921089404608598, 202.0: 0.007891059539140204}</t>
-  </si>
-  <si>
-    <t>{857.0: 0.9927664599940952, 695.0: 0.00723354000590493}</t>
+    <t>{853.0: 0.99210894046086, 202.0: 0.007891059539140204}</t>
+  </si>
+  <si>
+    <t>{857.0: 0.9926963779997019, 695.0: 0.007303622000298107}</t>
   </si>
   <si>
     <t>{937.0: 0.9949109414758269, 85.0: 0.005089058524173028}</t>
@@ -3099,7 +3096,7 @@
         <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>585</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -3275,7 +3272,7 @@
         <v>94</v>
       </c>
       <c r="C93" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -3418,7 +3415,7 @@
         <v>107</v>
       </c>
       <c r="C106" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -3462,7 +3459,7 @@
         <v>111</v>
       </c>
       <c r="C110" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -3473,7 +3470,7 @@
         <v>112</v>
       </c>
       <c r="C111" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -3484,7 +3481,7 @@
         <v>113</v>
       </c>
       <c r="C112" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -3506,7 +3503,7 @@
         <v>115</v>
       </c>
       <c r="C114" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -3550,7 +3547,7 @@
         <v>119</v>
       </c>
       <c r="C118" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -3627,7 +3624,7 @@
         <v>126</v>
       </c>
       <c r="C125" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -3660,7 +3657,7 @@
         <v>129</v>
       </c>
       <c r="C128" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -3803,7 +3800,7 @@
         <v>142</v>
       </c>
       <c r="C141" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3951,7 +3948,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -3962,7 +3959,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
@@ -3973,7 +3970,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
@@ -3984,7 +3981,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
@@ -3995,7 +3992,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
@@ -4006,7 +4003,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
@@ -4017,7 +4014,7 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
@@ -4028,7 +4025,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
@@ -4039,7 +4036,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
@@ -4050,7 +4047,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
@@ -4061,7 +4058,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -4072,7 +4069,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -4083,7 +4080,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -4094,7 +4091,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
@@ -4105,7 +4102,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -4116,7 +4113,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -4127,7 +4124,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
@@ -4138,7 +4135,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
@@ -4149,7 +4146,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
@@ -4160,29 +4157,29 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
       </c>
       <c r="C174" t="s">
-        <v>596</v>
+        <v>175</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>176</v>
+        <v>595</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
@@ -4193,7 +4190,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
@@ -4204,7 +4201,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
@@ -4215,29 +4212,29 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
       </c>
       <c r="C179" t="s">
-        <v>597</v>
+        <v>180</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
       </c>
       <c r="C180" t="s">
-        <v>181</v>
+        <v>596</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
@@ -4248,7 +4245,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -4259,7 +4256,7 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
@@ -4270,7 +4267,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
@@ -4281,7 +4278,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
@@ -4292,29 +4289,29 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
       </c>
       <c r="C186" t="s">
-        <v>598</v>
+        <v>187</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>188</v>
+        <v>597</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
@@ -4325,7 +4322,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
@@ -4336,7 +4333,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
@@ -4347,29 +4344,29 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>599</v>
+        <v>192</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>193</v>
+        <v>598</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -4380,7 +4377,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
@@ -4391,7 +4388,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
@@ -4402,7 +4399,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
@@ -4413,7 +4410,7 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
@@ -4424,7 +4421,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
@@ -4435,7 +4432,7 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
@@ -4446,7 +4443,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
@@ -4457,7 +4454,7 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
@@ -4468,7 +4465,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
@@ -4479,7 +4476,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
@@ -4490,7 +4487,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -4501,7 +4498,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -4512,7 +4509,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
@@ -4523,7 +4520,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
@@ -4534,7 +4531,7 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
@@ -4545,7 +4542,7 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
@@ -4556,7 +4553,7 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
@@ -4567,7 +4564,7 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
@@ -4578,7 +4575,7 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
@@ -4589,7 +4586,7 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
@@ -4600,7 +4597,7 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
@@ -4611,7 +4608,7 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
@@ -4622,7 +4619,7 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
@@ -4633,7 +4630,7 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B217" t="s">
         <v>218</v>
@@ -4644,7 +4641,7 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B218" t="s">
         <v>219</v>
@@ -4655,7 +4652,7 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B219" t="s">
         <v>220</v>
@@ -4666,7 +4663,7 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B220" t="s">
         <v>221</v>
@@ -4677,7 +4674,7 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B221" t="s">
         <v>222</v>
@@ -4688,7 +4685,7 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B222" t="s">
         <v>223</v>
@@ -4699,7 +4696,7 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B223" t="s">
         <v>224</v>
@@ -4710,7 +4707,7 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B224" t="s">
         <v>225</v>
@@ -4721,7 +4718,7 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B225" t="s">
         <v>226</v>
@@ -4732,7 +4729,7 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B226" t="s">
         <v>227</v>
@@ -4743,7 +4740,7 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B227" t="s">
         <v>228</v>
@@ -4754,7 +4751,7 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B228" t="s">
         <v>229</v>
@@ -4815,7 +4812,7 @@
         <v>234</v>
       </c>
       <c r="C233" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -4837,7 +4834,7 @@
         <v>236</v>
       </c>
       <c r="C235" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -4848,7 +4845,7 @@
         <v>237</v>
       </c>
       <c r="C236" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -5002,7 +4999,7 @@
         <v>251</v>
       </c>
       <c r="C250" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -5090,7 +5087,7 @@
         <v>259</v>
       </c>
       <c r="C258" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -5288,7 +5285,7 @@
         <v>277</v>
       </c>
       <c r="C276" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -5431,7 +5428,7 @@
         <v>290</v>
       </c>
       <c r="C289" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -6102,7 +6099,7 @@
         <v>351</v>
       </c>
       <c r="C350" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -6476,7 +6473,7 @@
         <v>385</v>
       </c>
       <c r="C384" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -6531,7 +6528,7 @@
         <v>390</v>
       </c>
       <c r="C389" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -6564,7 +6561,7 @@
         <v>393</v>
       </c>
       <c r="C392" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -6674,7 +6671,7 @@
         <v>403</v>
       </c>
       <c r="C402" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -6762,7 +6759,7 @@
         <v>411</v>
       </c>
       <c r="C410" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -6773,7 +6770,7 @@
         <v>412</v>
       </c>
       <c r="C411" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -6828,7 +6825,7 @@
         <v>417</v>
       </c>
       <c r="C416" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -7191,7 +7188,7 @@
         <v>450</v>
       </c>
       <c r="C449" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -7334,7 +7331,7 @@
         <v>463</v>
       </c>
       <c r="C462" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -7444,7 +7441,7 @@
         <v>473</v>
       </c>
       <c r="C472" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -7466,7 +7463,7 @@
         <v>475</v>
       </c>
       <c r="C474" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -7521,7 +7518,7 @@
         <v>480</v>
       </c>
       <c r="C479" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -7686,7 +7683,7 @@
         <v>495</v>
       </c>
       <c r="C494" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -7752,7 +7749,7 @@
         <v>501</v>
       </c>
       <c r="C500" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -7785,7 +7782,7 @@
         <v>504</v>
       </c>
       <c r="C503" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -7829,7 +7826,7 @@
         <v>508</v>
       </c>
       <c r="C507" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -8082,7 +8079,7 @@
         <v>531</v>
       </c>
       <c r="C530" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -8390,7 +8387,7 @@
         <v>559</v>
       </c>
       <c r="C558" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="559" spans="1:3">
@@ -8478,7 +8475,7 @@
         <v>567</v>
       </c>
       <c r="C566" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="567" spans="1:3">
@@ -8632,7 +8629,7 @@
         <v>581</v>
       </c>
       <c r="C580" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
   </sheetData>
